--- a/data_year/zb/国民经济核算/投入产出基本流量表/最终使用部分/政府最终消费.xlsx
+++ b/data_year/zb/国民经济核算/投入产出基本流量表/最终使用部分/政府最终消费.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,282 +528,175 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>105006631.472921</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>492711431.656091</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4977112.39137816</v>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>12046368.65497</v>
+        <v>7377031.60620055</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>117053000.127891</v>
+        <v>519720573.67</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>12031091.0817024</v>
+      </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
+      <c r="Q2" t="n">
+        <v>2623906.9346279</v>
+      </c>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>185476980.972086</v>
+        <v>685280403.88932</v>
       </c>
       <c r="D3" t="n">
-        <v>1641610.55780229</v>
+        <v>6076074.49959634</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>1018757.19393119</v>
+        <v>11370816.9687061</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>191199000</v>
+        <v>731817933.368402</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>3061651.27618003</v>
+        <v>19730147.955222</v>
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
+      <c r="Q3" t="n">
+        <v>9360490.05555707</v>
+      </c>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>256201291.590037</v>
+        <v>932001235.306928</v>
       </c>
       <c r="D4" t="n">
-        <v>2820251.72462272</v>
+        <v>10833996.6642008</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>1066576.96053689</v>
+        <v>7354952.56181963</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>266051999.684559</v>
+        <v>970534166</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>5963879.40936302</v>
+        <v>18729765.6386549</v>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
+      <c r="Q4" t="n">
+        <v>1614215.82839635</v>
+      </c>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>323867285.482462</v>
+        <v>1103917258.18322</v>
       </c>
       <c r="D5" t="n">
-        <v>3416229.58685555</v>
+        <v>12379032.8592395</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="n">
-        <v>5690532.80983363</v>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>351909186.200692</v>
+        <v>1237503118.68515</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
-        <v>16214816.303128</v>
-      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="n">
-        <v>2720322.01841335</v>
-      </c>
+      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>492711431.656091</v>
+        <v>1482404205.74338</v>
       </c>
       <c r="D6" t="n">
-        <v>4977112.39137816</v>
+        <v>19639627.5808391</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
-        <v>7377031.60620055</v>
-      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>519720573.67</v>
+        <v>1736253794.41957</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
-        <v>12031091.0817024</v>
-      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="n">
-        <v>2623906.9346279</v>
-      </c>
+      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="n">
-        <v>685280403.88932</v>
-      </c>
-      <c r="D7" t="n">
-        <v>6076074.49959634</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="n">
-        <v>11370816.9687061</v>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="n">
-        <v>731817933.368402</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
-        <v>19730147.955222</v>
-      </c>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="n">
-        <v>9360490.05555707</v>
-      </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="n">
-        <v>932001235.306928</v>
-      </c>
-      <c r="D8" t="n">
-        <v>10833996.6642008</v>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="n">
-        <v>7354952.56181963</v>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="n">
-        <v>970534166</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
-        <v>18729765.6386549</v>
-      </c>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="n">
-        <v>1614215.82839635</v>
-      </c>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="n">
-        <v>1103917258.18322</v>
-      </c>
-      <c r="D9" t="n">
-        <v>12379032.8592395</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="n">
-        <v>1237503118.68515</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
